--- a/biology/Médecine/Épilepsie_partielle_continue/Épilepsie_partielle_continue.xlsx
+++ b/biology/Médecine/Épilepsie_partielle_continue/Épilepsie_partielle_continue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pilepsie_partielle_continue</t>
+          <t>Épilepsie_partielle_continue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épilepsie partielle continue est aussi appelée Épilepsie de Kojevnikov ou Syndrome de Kojevnikov.
 En neurologie, il s'agit d'une forme d'épilepsie se traduisant par des secousses musculaires (ou secousses cloniques) d'une partie du corps évoluant sur une durée de plusieurs heures, plusieurs jours, voire plusieurs années. La conscience est conservée et les mouvements anormaux ne s'étendent pas à d'autres parties du corps (contrairement à l'épilepsie de type Bravais-Jackson). Les contractions sont réduites mais pas abolies pendant le sommeil.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pilepsie_partielle_continue</t>
+          <t>Épilepsie_partielle_continue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>EEG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'examen électro-encéphalographique met en évidence dans la plupart des cas des décharges épileptiques focales (pointes et ondes) au niveau de l'hémisphère opposé au membre concerné[1]. En effet, les mouvements prennent le plus fréquemment leur source au niveau d'une lésion focale du cortex cérébral, mais ils peuvent parfois provenir des structures sous-corticales comme le tronc cérébral ou les noyaux gris centraux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen électro-encéphalographique met en évidence dans la plupart des cas des décharges épileptiques focales (pointes et ondes) au niveau de l'hémisphère opposé au membre concerné. En effet, les mouvements prennent le plus fréquemment leur source au niveau d'une lésion focale du cortex cérébral, mais ils peuvent parfois provenir des structures sous-corticales comme le tronc cérébral ou les noyaux gris centraux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pilepsie_partielle_continue</t>
+          <t>Épilepsie_partielle_continue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Méningo-encéphalite verno-estivale russe (encéphalite à tique)
-Encéphalite focale de Rasmussen[2]
+Encéphalite focale de Rasmussen
 Sclérose en plaques
 Diabète sucré
 Tumeurs cérébrales
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pilepsie_partielle_continue</t>
+          <t>Épilepsie_partielle_continue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une maladie grave avec des séquelles neurologiques dans deux tiers des cas avec quelques décès[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une maladie grave avec des séquelles neurologiques dans deux tiers des cas avec quelques décès.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pilepsie_partielle_continue</t>
+          <t>Épilepsie_partielle_continue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les crises épileptiques réfractaires peuvent conduire à proposer une résection chirurgicale des zones épileptogènes[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les crises épileptiques réfractaires peuvent conduire à proposer une résection chirurgicale des zones épileptogènes.
 </t>
         </is>
       </c>
